--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57036638-5BAB-4CCB-8486-C50FF3C9E7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CDE34C-60F8-4F89-8D4A-D35B11CC0829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
     <sheet name="alunos" sheetId="2" r:id="rId2"/>
+    <sheet name="vistos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>Aluno</t>
   </si>
@@ -219,17 +220,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -522,7 +513,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +533,12 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -645,6 +640,30 @@
       <c r="E2" s="1">
         <v>46051</v>
       </c>
+      <c r="F2" s="1">
+        <v>46056</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -705,6 +724,9 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="2"/>
@@ -801,6 +823,9 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -895,6 +920,9 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -989,6 +1017,9 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1083,6 +1114,9 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1177,6 +1211,9 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1271,6 +1308,9 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1365,6 +1405,9 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1459,6 +1502,9 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1553,6 +1599,9 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1647,6 +1696,9 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1741,6 +1793,9 @@
       <c r="E14" t="s">
         <v>34</v>
       </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1835,6 +1890,9 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1929,6 +1987,9 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2023,6 +2084,9 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2117,6 +2181,9 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2211,6 +2278,9 @@
       <c r="E19" t="s">
         <v>34</v>
       </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2305,6 +2375,9 @@
       <c r="E20" t="s">
         <v>34</v>
       </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2399,6 +2472,9 @@
       <c r="E21" t="s">
         <v>34</v>
       </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2493,6 +2569,9 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2587,6 +2666,9 @@
       <c r="E23" t="s">
         <v>34</v>
       </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2681,6 +2763,9 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2775,6 +2860,9 @@
       <c r="E25" t="s">
         <v>34</v>
       </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2869,6 +2957,9 @@
       <c r="E26" t="s">
         <v>34</v>
       </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -2963,6 +3054,9 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3057,6 +3151,9 @@
       <c r="E28" t="s">
         <v>34</v>
       </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3151,6 +3248,9 @@
       <c r="E29" t="s">
         <v>34</v>
       </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3245,6 +3345,9 @@
       <c r="E30" t="s">
         <v>34</v>
       </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3339,6 +3442,9 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3420,7 +3526,7 @@
     <sortCondition ref="B3:B31"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="BE3:DG3 D3:AZ3 BB3:BB22 BE4:BJ10 BK4:DG31 F11:BA22 BC11:BJ22 F23:BJ31 F4:AZ10 D4:E31">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 G4:AZ10 BE4:BJ10 BK4:DG31 G11:BA22 BC11:BJ22 G23:BJ31 D4:F31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3603,4 +3709,201 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E8BA54-AA53-4AE8-B8DA-79238D2ECDF5}">
+  <dimension ref="A2:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>alunos!B2</f>
+        <v>Alicia Coelho Gomes de Oliveira</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>alunos!B3</f>
+        <v>Ana Klara do Carmo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>alunos!B4</f>
+        <v>Breno Franco de Lima</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>alunos!B5</f>
+        <v>Bruno Vascon</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>alunos!B6</f>
+        <v>Davi Parreira Cardeal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>alunos!B7</f>
+        <v>Eloísa Macedo da Silva</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>alunos!B8</f>
+        <v>Enzo Casadei Macedo</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>alunos!B9</f>
+        <v>Felipe Martins</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>alunos!B10</f>
+        <v>Gabriel Pereira de Oliveira</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>alunos!B11</f>
+        <v>Giovana Luísa Cezar</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>alunos!B12</f>
+        <v>Guilherme Enrico Barichello</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>alunos!B13</f>
+        <v>Isabele Hilary Reis Silva</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>alunos!B14</f>
+        <v>Isabelle Moreira Cezar Barichello</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>alunos!B15</f>
+        <v>Jéssica Guedes Vaz</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>alunos!B16</f>
+        <v>Joana Fernandes Fabrin</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>alunos!B17</f>
+        <v>João Henrique Leme da Silva</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>alunos!B18</f>
+        <v>João Victor Moraes Lopes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>alunos!B19</f>
+        <v>Kamilly Vitoria Ferreira Silvério</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>alunos!B20</f>
+        <v>Leonardo Canina Marchiori</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>alunos!B21</f>
+        <v>Lívia Fernandes Morais</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>alunos!B22</f>
+        <v>Maria Eduarda Betim Gomes de Moraes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>alunos!B23</f>
+        <v>Mariana Correia Santos</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>alunos!B24</f>
+        <v>Miguel Cardoso Pignata</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>alunos!B25</f>
+        <v>Mirella Camilotti Perez</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>alunos!B26</f>
+        <v>Pietro Cardoso Broleze</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>alunos!B27</f>
+        <v>Samuel Gomes Silva</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>alunos!B28</f>
+        <v>Thiago Lima Amaral</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>alunos!B29</f>
+        <v>Vitor Rafael Parisato</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>alunos!B30</f>
+        <v>Yasmin Drudi</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CDE34C-60F8-4F89-8D4A-D35B11CC0829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DAD9EE-D908-4E24-8399-8AB3775BBE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="36">
   <si>
     <t>Aluno</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Giovana Ferreira Remorini</t>
   </si>
 </sst>
 </file>
@@ -507,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS31"/>
+  <dimension ref="A1:DS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +646,9 @@
       <c r="F2" s="1">
         <v>46056</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>46058</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -727,6 +732,9 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="2"/>
@@ -826,6 +834,9 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -923,6 +934,9 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1020,6 +1034,9 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1117,6 +1134,9 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1214,6 +1234,9 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1311,6 +1334,9 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1408,6 +1434,9 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1505,6 +1534,9 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1602,6 +1634,9 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1699,6 +1734,9 @@
       <c r="F13" t="s">
         <v>34</v>
       </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1796,6 +1834,9 @@
       <c r="F14" t="s">
         <v>34</v>
       </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1893,6 +1934,9 @@
       <c r="F15" t="s">
         <v>34</v>
       </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1990,6 +2034,9 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2087,6 +2134,9 @@
       <c r="F17" t="s">
         <v>34</v>
       </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2184,6 +2234,9 @@
       <c r="F18" t="s">
         <v>34</v>
       </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2281,6 +2334,9 @@
       <c r="F19" t="s">
         <v>34</v>
       </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2378,6 +2434,9 @@
       <c r="F20" t="s">
         <v>34</v>
       </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2475,6 +2534,9 @@
       <c r="F21" t="s">
         <v>34</v>
       </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2572,6 +2634,9 @@
       <c r="F22" t="s">
         <v>34</v>
       </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2669,6 +2734,9 @@
       <c r="F23" t="s">
         <v>34</v>
       </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2766,6 +2834,9 @@
       <c r="F24" t="s">
         <v>34</v>
       </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2863,6 +2934,9 @@
       <c r="F25" t="s">
         <v>34</v>
       </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2960,6 +3034,9 @@
       <c r="F26" t="s">
         <v>34</v>
       </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3057,6 +3134,9 @@
       <c r="F27" t="s">
         <v>34</v>
       </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3154,6 +3234,9 @@
       <c r="F28" t="s">
         <v>34</v>
       </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3251,6 +3334,9 @@
       <c r="F29" t="s">
         <v>34</v>
       </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3348,6 +3434,9 @@
       <c r="F30" t="s">
         <v>34</v>
       </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3445,6 +3534,9 @@
       <c r="F31" t="s">
         <v>34</v>
       </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3521,12 +3613,28 @@
       <c r="DR31" s="5"/>
       <c r="DS31" s="5"/>
     </row>
+    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>alunos!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B32" t="str">
+        <f>alunos!B31</f>
+        <v>Giovana Ferreira Remorini</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B31">
     <sortCondition ref="B3:B31"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 G4:AZ10 BE4:BJ10 BK4:DG31 G11:BA22 BC11:BJ22 G23:BJ31 D4:F31">
+  <conditionalFormatting sqref="BE3:DG3 BB3:BB22 H4:AZ10 BE4:BJ10 BK4:DG31 H11:BA22 BC11:BJ22 H23:BJ31 D3:AZ3 D4:G31 G32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3538,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,6 +3813,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3715,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E8BA54-AA53-4AE8-B8DA-79238D2ECDF5}">
   <dimension ref="A2:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1053361\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DAD9EE-D908-4E24-8399-8AB3775BBE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E0AA6-3EB4-4192-BB2A-D30F22409B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
   <si>
     <t>Aluno</t>
-  </si>
-  <si>
-    <t>Orden</t>
   </si>
   <si>
     <t>RM</t>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>Giovana Ferreira Remorini</t>
+  </si>
+  <si>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -512,18 +515,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="50" width="7.7109375" customWidth="1"/>
     <col min="51" max="51" width="7.7109375" style="5" customWidth="1"/>
     <col min="52" max="106" width="7.7109375" customWidth="1"/>
@@ -531,18 +534,20 @@
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -629,13 +634,13 @@
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>46049</v>
@@ -649,7 +654,9 @@
       <c r="G2" s="1">
         <v>46058</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>46063</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -726,16 +733,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -826,16 +836,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -926,16 +939,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -1026,16 +1042,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -1126,16 +1145,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1226,16 +1248,19 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
@@ -1326,16 +1351,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -1426,16 +1454,19 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -1526,16 +1557,19 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
@@ -1626,16 +1660,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -1726,16 +1763,19 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -1826,16 +1866,19 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -1926,16 +1969,19 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -2026,16 +2072,19 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
@@ -2126,16 +2175,19 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
@@ -2226,16 +2278,19 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
@@ -2326,16 +2381,19 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
@@ -2426,16 +2484,19 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
@@ -2526,16 +2587,19 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
@@ -2626,16 +2690,19 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
@@ -2726,16 +2793,19 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
@@ -2826,16 +2896,19 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -2926,16 +2999,19 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
@@ -3026,16 +3102,19 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
@@ -3126,16 +3205,19 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
@@ -3226,16 +3308,19 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
@@ -3326,16 +3411,19 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
@@ -3426,16 +3514,19 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
@@ -3526,16 +3617,19 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
       </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
@@ -3626,7 +3720,10 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3634,7 +3731,7 @@
     <sortCondition ref="B3:B31"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="BE3:DG3 BB3:BB22 H4:AZ10 BE4:BJ10 BK4:DG31 H11:BA22 BC11:BJ22 H23:BJ31 D3:AZ3 D4:G31 G32">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 H4:AZ10 BE4:BJ10 D4:G31 BK4:DG31 H11:BA22 BC11:BJ22 H23:BJ31 G32:H32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3662,7 +3759,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3670,152 +3767,152 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E8BA54-AA53-4AE8-B8DA-79238D2ECDF5}">
   <dimension ref="A2:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1053361\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E0AA6-3EB4-4192-BB2A-D30F22409B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4A453-82D8-4716-A70E-FD5E0FCE3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>P/5</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>

--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4A453-82D8-4716-A70E-FD5E0FCE3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4D116-9AB5-4D9C-A134-BF973BAADEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -522,7 +522,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,9 @@
       <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -660,7 +662,9 @@
       <c r="H2" s="1">
         <v>46063</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>46065</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -748,6 +752,9 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="AU3" s="2"/>
@@ -853,6 +860,9 @@
       <c r="H4" t="s">
         <v>33</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -956,6 +966,9 @@
       <c r="H5" t="s">
         <v>33</v>
       </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1059,6 +1072,9 @@
       <c r="H6" t="s">
         <v>37</v>
       </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1162,6 +1178,9 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1265,6 +1284,9 @@
       <c r="H8" t="s">
         <v>33</v>
       </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1368,6 +1390,9 @@
       <c r="H9" t="s">
         <v>33</v>
       </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1471,6 +1496,9 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1574,6 +1602,9 @@
       <c r="H11" t="s">
         <v>33</v>
       </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1677,6 +1708,9 @@
       <c r="H12" t="s">
         <v>33</v>
       </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1780,6 +1814,9 @@
       <c r="H13" t="s">
         <v>33</v>
       </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1883,6 +1920,9 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1986,6 +2026,9 @@
       <c r="H15" t="s">
         <v>33</v>
       </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2089,6 +2132,9 @@
       <c r="H16" t="s">
         <v>33</v>
       </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2192,6 +2238,9 @@
       <c r="H17" t="s">
         <v>33</v>
       </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2295,6 +2344,9 @@
       <c r="H18" t="s">
         <v>33</v>
       </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2398,6 +2450,9 @@
       <c r="H19" t="s">
         <v>33</v>
       </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2501,6 +2556,9 @@
       <c r="H20" t="s">
         <v>33</v>
       </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2604,6 +2662,9 @@
       <c r="H21" t="s">
         <v>36</v>
       </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2707,6 +2768,9 @@
       <c r="H22" t="s">
         <v>33</v>
       </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2810,6 +2874,9 @@
       <c r="H23" t="s">
         <v>33</v>
       </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2913,6 +2980,9 @@
       <c r="H24" t="s">
         <v>33</v>
       </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3016,6 +3086,9 @@
       <c r="H25" t="s">
         <v>33</v>
       </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3119,6 +3192,9 @@
       <c r="H26" t="s">
         <v>33</v>
       </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3222,6 +3298,9 @@
       <c r="H27" t="s">
         <v>33</v>
       </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3325,6 +3404,9 @@
       <c r="H28" t="s">
         <v>33</v>
       </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3428,6 +3510,9 @@
       <c r="H29" t="s">
         <v>33</v>
       </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3531,6 +3616,9 @@
       <c r="H30" t="s">
         <v>33</v>
       </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3634,6 +3722,9 @@
       <c r="H31" t="s">
         <v>33</v>
       </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3728,13 +3819,16 @@
       <c r="H32" t="s">
         <v>33</v>
       </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B31">
     <sortCondition ref="B3:B31"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 H4:AZ10 BE4:BJ10 D4:G31 BK4:DG31 H11:BA22 BC11:BJ22 H23:BJ31 G32:H32">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 H4:AZ10 BE4:BJ10 D4:G31 BK4:DG31 H11:BA22 BC11:BJ22 H23:BJ31 G32:I32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4D116-9AB5-4D9C-A134-BF973BAADEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{221560A6-6363-4463-A3F5-63D9E207FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="alunos" sheetId="2" r:id="rId2"/>
     <sheet name="vistos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,22 +29,42 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="40">
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>QUI</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
   <si>
     <t>Aluno</t>
   </si>
   <si>
-    <t>RM</t>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P/5</t>
+  </si>
+  <si>
+    <t>carnaval</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>Alicia Coelho Gomes de Oliveira</t>
@@ -134,32 +154,17 @@
     <t>Yasmin Drudi</t>
   </si>
   <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>QUI</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Giovana Ferreira Remorini</t>
   </si>
   <si>
-    <t>Ordem</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P/5</t>
+    <t>Carolina da Silva Santos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -224,10 +229,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -516,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS32"/>
+  <dimension ref="A1:DS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -535,27 +543,31 @@
     <col min="52" max="106" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:123">
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -637,15 +649,15 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:123">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>46049</v>
@@ -665,8 +677,12 @@
       <c r="I2" s="1">
         <v>46065</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1">
+        <v>46070</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46072</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -727,7 +743,7 @@
       <c r="CL2" s="5"/>
       <c r="CM2" s="5"/>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:123">
       <c r="A3">
         <f>alunos!A2</f>
         <v>0</v>
@@ -740,22 +756,25 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -833,7 +852,7 @@
       <c r="DR3" s="5"/>
       <c r="DS3" s="5"/>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:123">
       <c r="A4">
         <f>alunos!A3</f>
         <v>0</v>
@@ -846,22 +865,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -939,7 +961,7 @@
       <c r="DR4" s="5"/>
       <c r="DS4" s="5"/>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:123">
       <c r="A5">
         <f>alunos!A4</f>
         <v>0</v>
@@ -952,22 +974,25 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -1045,7 +1070,7 @@
       <c r="DR5" s="5"/>
       <c r="DS5" s="5"/>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:123">
       <c r="A6">
         <f>alunos!A5</f>
         <v>0</v>
@@ -1058,22 +1083,28 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -1151,7 +1182,7 @@
       <c r="DR6" s="5"/>
       <c r="DS6" s="5"/>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:123">
       <c r="A7">
         <f>alunos!A6</f>
         <v>0</v>
@@ -1164,22 +1195,26 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" t="s">
+        <v>5</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1257,7 +1292,7 @@
       <c r="DR7" s="5"/>
       <c r="DS7" s="5"/>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:123">
       <c r="A8">
         <f>alunos!A7</f>
         <v>0</v>
@@ -1270,22 +1305,26 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" t="s">
+        <v>5</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
@@ -1363,7 +1402,7 @@
       <c r="DR8" s="5"/>
       <c r="DS8" s="5"/>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:123">
       <c r="A9">
         <f>alunos!A8</f>
         <v>0</v>
@@ -1376,22 +1415,26 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" t="s">
+        <v>5</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -1469,7 +1512,7 @@
       <c r="DR9" s="5"/>
       <c r="DS9" s="5"/>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:123">
       <c r="A10">
         <f>alunos!A9</f>
         <v>0</v>
@@ -1482,22 +1525,26 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" t="s">
+        <v>5</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -1575,7 +1622,7 @@
       <c r="DR10" s="5"/>
       <c r="DS10" s="5"/>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:123">
       <c r="A11">
         <f>alunos!A10</f>
         <v>0</v>
@@ -1588,22 +1635,26 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" t="s">
+        <v>5</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
@@ -1681,7 +1732,7 @@
       <c r="DR11" s="5"/>
       <c r="DS11" s="5"/>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123">
       <c r="A12">
         <f>alunos!A11</f>
         <v>0</v>
@@ -1694,22 +1745,26 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" t="s">
+        <v>5</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -1787,7 +1842,7 @@
       <c r="DR12" s="5"/>
       <c r="DS12" s="5"/>
     </row>
-    <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" ht="15.75" customHeight="1">
       <c r="A13">
         <f>alunos!A12</f>
         <v>0</v>
@@ -1800,22 +1855,26 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" t="s">
+        <v>5</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -1893,7 +1952,7 @@
       <c r="DR13" s="5"/>
       <c r="DS13" s="5"/>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:123">
       <c r="A14">
         <f>alunos!A13</f>
         <v>0</v>
@@ -1906,22 +1965,26 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" t="s">
+        <v>5</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -1999,7 +2062,7 @@
       <c r="DR14" s="5"/>
       <c r="DS14" s="5"/>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:123">
       <c r="A15">
         <f>alunos!A14</f>
         <v>0</v>
@@ -2012,22 +2075,26 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" t="s">
+        <v>8</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -2105,7 +2172,7 @@
       <c r="DR15" s="5"/>
       <c r="DS15" s="5"/>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:123">
       <c r="A16">
         <f>alunos!A15</f>
         <v>0</v>
@@ -2118,22 +2185,26 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" t="s">
+        <v>5</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
@@ -2211,7 +2282,7 @@
       <c r="DR16" s="5"/>
       <c r="DS16" s="5"/>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:123">
       <c r="A17">
         <f>alunos!A16</f>
         <v>0</v>
@@ -2224,22 +2295,26 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" t="s">
+        <v>5</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
@@ -2317,7 +2392,7 @@
       <c r="DR17" s="5"/>
       <c r="DS17" s="5"/>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:123">
       <c r="A18">
         <f>alunos!A17</f>
         <v>0</v>
@@ -2330,22 +2405,26 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" t="s">
+        <v>5</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
@@ -2423,7 +2502,7 @@
       <c r="DR18" s="5"/>
       <c r="DS18" s="5"/>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:123">
       <c r="A19">
         <f>alunos!A18</f>
         <v>0</v>
@@ -2436,22 +2515,26 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" t="s">
+        <v>5</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
@@ -2529,7 +2612,7 @@
       <c r="DR19" s="5"/>
       <c r="DS19" s="5"/>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:123">
       <c r="A20">
         <f>alunos!A19</f>
         <v>0</v>
@@ -2542,22 +2625,26 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" t="s">
+        <v>8</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
@@ -2635,7 +2722,7 @@
       <c r="DR20" s="5"/>
       <c r="DS20" s="5"/>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:123">
       <c r="A21">
         <f>alunos!A20</f>
         <v>0</v>
@@ -2648,22 +2735,26 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" t="s">
+        <v>5</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
@@ -2741,7 +2832,7 @@
       <c r="DR21" s="5"/>
       <c r="DS21" s="5"/>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:123">
       <c r="A22">
         <f>alunos!A21</f>
         <v>0</v>
@@ -2754,22 +2845,26 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" t="s">
+        <v>5</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
@@ -2847,7 +2942,7 @@
       <c r="DR22" s="5"/>
       <c r="DS22" s="5"/>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:123">
       <c r="A23">
         <f>alunos!A22</f>
         <v>0</v>
@@ -2860,22 +2955,26 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" t="s">
+        <v>5</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
@@ -2953,7 +3052,7 @@
       <c r="DR23" s="5"/>
       <c r="DS23" s="5"/>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:123">
       <c r="A24">
         <f>alunos!A23</f>
         <v>0</v>
@@ -2966,22 +3065,26 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" t="s">
+        <v>5</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -3059,7 +3162,7 @@
       <c r="DR24" s="5"/>
       <c r="DS24" s="5"/>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:123">
       <c r="A25">
         <f>alunos!A24</f>
         <v>0</v>
@@ -3072,22 +3175,26 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" t="s">
+        <v>5</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
@@ -3165,7 +3272,7 @@
       <c r="DR25" s="5"/>
       <c r="DS25" s="5"/>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:123">
       <c r="A26">
         <f>alunos!A25</f>
         <v>0</v>
@@ -3178,22 +3285,26 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" t="s">
+        <v>5</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
@@ -3271,7 +3382,7 @@
       <c r="DR26" s="5"/>
       <c r="DS26" s="5"/>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:123">
       <c r="A27">
         <f>alunos!A26</f>
         <v>0</v>
@@ -3284,22 +3395,26 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" t="s">
+        <v>8</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
@@ -3377,7 +3492,7 @@
       <c r="DR27" s="5"/>
       <c r="DS27" s="5"/>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:123">
       <c r="A28">
         <f>alunos!A27</f>
         <v>0</v>
@@ -3390,22 +3505,26 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" t="s">
+        <v>5</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
@@ -3483,7 +3602,7 @@
       <c r="DR28" s="5"/>
       <c r="DS28" s="5"/>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:123">
       <c r="A29">
         <f>alunos!A28</f>
         <v>0</v>
@@ -3496,22 +3615,26 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" t="s">
+        <v>5</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
@@ -3589,7 +3712,7 @@
       <c r="DR29" s="5"/>
       <c r="DS29" s="5"/>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:123">
       <c r="A30">
         <f>alunos!A29</f>
         <v>0</v>
@@ -3602,22 +3725,26 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" t="s">
+        <v>5</v>
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
@@ -3695,7 +3822,7 @@
       <c r="DR30" s="5"/>
       <c r="DS30" s="5"/>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:123">
       <c r="A31">
         <f>alunos!A30</f>
         <v>0</v>
@@ -3708,22 +3835,26 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" t="s">
+        <v>5</v>
       </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
@@ -3801,7 +3932,7 @@
       <c r="DR31" s="5"/>
       <c r="DS31" s="5"/>
     </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:123">
       <c r="A32">
         <f>alunos!A31</f>
         <v>0</v>
@@ -3814,21 +3945,40 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="str">
+        <f>alunos!B32</f>
+        <v>Carolina da Silva Santos</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B31">
     <sortCondition ref="B3:B31"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="J6:J32"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 H4:AZ10 BE4:BJ10 D4:G31 BK4:DG31 H11:BA22 BC11:BJ22 H23:BJ31 G32:I32">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 H4:AZ6 BE4:BJ10 D4:G31 BK4:DG31 BC11:BJ22 G32:I32 K23:BJ31 K11:BA22 H7:I31 K7:AZ10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3840,13 +3990,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
@@ -3854,162 +4004,167 @@
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4026,185 +4181,185 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="str">
         <f>alunos!B2</f>
         <v>Alicia Coelho Gomes de Oliveira</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="str">
         <f>alunos!B3</f>
         <v>Ana Klara do Carmo</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="str">
         <f>alunos!B4</f>
         <v>Breno Franco de Lima</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="str">
         <f>alunos!B5</f>
         <v>Bruno Vascon</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="str">
         <f>alunos!B6</f>
         <v>Davi Parreira Cardeal</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="str">
         <f>alunos!B7</f>
         <v>Eloísa Macedo da Silva</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="str">
         <f>alunos!B8</f>
         <v>Enzo Casadei Macedo</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="str">
         <f>alunos!B9</f>
         <v>Felipe Martins</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="str">
         <f>alunos!B10</f>
         <v>Gabriel Pereira de Oliveira</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="str">
         <f>alunos!B11</f>
         <v>Giovana Luísa Cezar</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="str">
         <f>alunos!B12</f>
         <v>Guilherme Enrico Barichello</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="str">
         <f>alunos!B13</f>
         <v>Isabele Hilary Reis Silva</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="str">
         <f>alunos!B14</f>
         <v>Isabelle Moreira Cezar Barichello</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="str">
         <f>alunos!B15</f>
         <v>Jéssica Guedes Vaz</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>alunos!B16</f>
         <v>Joana Fernandes Fabrin</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f>alunos!B17</f>
         <v>João Henrique Leme da Silva</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f>alunos!B18</f>
         <v>João Victor Moraes Lopes</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f>alunos!B19</f>
         <v>Kamilly Vitoria Ferreira Silvério</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f>alunos!B20</f>
         <v>Leonardo Canina Marchiori</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f>alunos!B21</f>
         <v>Lívia Fernandes Morais</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f>alunos!B22</f>
         <v>Maria Eduarda Betim Gomes de Moraes</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>alunos!B23</f>
         <v>Mariana Correia Santos</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>alunos!B24</f>
         <v>Miguel Cardoso Pignata</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f>alunos!B25</f>
         <v>Mirella Camilotti Perez</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f>alunos!B26</f>
         <v>Pietro Cardoso Broleze</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f>alunos!B27</f>
         <v>Samuel Gomes Silva</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f>alunos!B28</f>
         <v>Thiago Lima Amaral</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f>alunos!B29</f>
         <v>Vitor Rafael Parisato</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="str">
         <f>alunos!B30</f>
         <v>Yasmin Drudi</v>

--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{221560A6-6363-4463-A3F5-63D9E207FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BB74EA-B017-472A-AFB8-2CCBFEA67FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="41">
   <si>
     <t>TER</t>
   </si>
@@ -159,6 +159,9 @@
   <si>
     <t>Carolina da Silva Santos</t>
   </si>
+  <si>
+    <t>Letícia Guarizo Tolloto</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +238,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -524,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS33"/>
+  <dimension ref="A1:DS34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:B34"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -568,7 +571,9 @@
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -683,7 +688,9 @@
       <c r="K2" s="1">
         <v>46072</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <v>46077</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -774,6 +781,9 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="AU3" s="2"/>
@@ -885,6 +895,9 @@
       <c r="K4" t="s">
         <v>5</v>
       </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -994,6 +1007,9 @@
       <c r="K5" t="s">
         <v>5</v>
       </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1106,6 +1122,9 @@
       <c r="K6" t="s">
         <v>5</v>
       </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1216,6 +1235,9 @@
       <c r="K7" t="s">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1326,6 +1348,9 @@
       <c r="K8" t="s">
         <v>5</v>
       </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1436,6 +1461,9 @@
       <c r="K9" t="s">
         <v>5</v>
       </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1546,6 +1574,9 @@
       <c r="K10" t="s">
         <v>5</v>
       </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1656,6 +1687,9 @@
       <c r="K11" t="s">
         <v>5</v>
       </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1766,6 +1800,9 @@
       <c r="K12" t="s">
         <v>5</v>
       </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1876,6 +1913,9 @@
       <c r="K13" t="s">
         <v>5</v>
       </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1986,6 +2026,9 @@
       <c r="K14" t="s">
         <v>5</v>
       </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2096,6 +2139,9 @@
       <c r="K15" t="s">
         <v>8</v>
       </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2206,6 +2252,9 @@
       <c r="K16" t="s">
         <v>5</v>
       </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2316,6 +2365,9 @@
       <c r="K17" t="s">
         <v>5</v>
       </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2426,6 +2478,9 @@
       <c r="K18" t="s">
         <v>5</v>
       </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2536,6 +2591,9 @@
       <c r="K19" t="s">
         <v>5</v>
       </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2646,6 +2704,9 @@
       <c r="K20" t="s">
         <v>8</v>
       </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2756,6 +2817,9 @@
       <c r="K21" t="s">
         <v>5</v>
       </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2866,6 +2930,9 @@
       <c r="K22" t="s">
         <v>5</v>
       </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2976,6 +3043,9 @@
       <c r="K23" t="s">
         <v>5</v>
       </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -3086,6 +3156,9 @@
       <c r="K24" t="s">
         <v>5</v>
       </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3196,6 +3269,9 @@
       <c r="K25" t="s">
         <v>5</v>
       </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3306,6 +3382,9 @@
       <c r="K26" t="s">
         <v>5</v>
       </c>
+      <c r="L26" t="s">
+        <v>5</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3416,6 +3495,9 @@
       <c r="K27" t="s">
         <v>8</v>
       </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3526,6 +3608,9 @@
       <c r="K28" t="s">
         <v>5</v>
       </c>
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3636,6 +3721,9 @@
       <c r="K29" t="s">
         <v>5</v>
       </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3746,6 +3834,9 @@
       <c r="K30" t="s">
         <v>5</v>
       </c>
+      <c r="L30" t="s">
+        <v>5</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3856,6 +3947,9 @@
       <c r="K31" t="s">
         <v>5</v>
       </c>
+      <c r="L31" t="s">
+        <v>5</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3957,8 +4051,15 @@
       <c r="K32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:11">
+      <c r="L32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <f>alunos!A32</f>
+        <v>0</v>
+      </c>
       <c r="B33" t="str">
         <f>alunos!B32</f>
         <v>Carolina da Silva Santos</v>
@@ -3968,6 +4069,22 @@
       </c>
       <c r="K33" t="s">
         <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <f>alunos!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
+        <f>alunos!B33</f>
+        <v>Letícia Guarizo Tolloto</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3990,10 +4107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4165,6 +4282,11 @@
     <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ds/turmas/1DES_B/frequencia-2-B.xlsx
+++ b/ds/turmas/1DES_B/frequencia-2-B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29819"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BB74EA-B017-472A-AFB8-2CCBFEA67FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEFFCF6B-BB4B-4597-8B83-3ECACA08F206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="41">
   <si>
     <t>TER</t>
   </si>
@@ -238,7 +238,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -531,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:B34"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -574,7 +574,9 @@
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -691,7 +693,9 @@
       <c r="L2" s="1">
         <v>46077</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>46079</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -784,6 +788,9 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
       <c r="AU3" s="2"/>
@@ -898,6 +905,9 @@
       <c r="L4" t="s">
         <v>5</v>
       </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -1010,6 +1020,9 @@
       <c r="L5" t="s">
         <v>5</v>
       </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1125,6 +1138,9 @@
       <c r="L6" t="s">
         <v>5</v>
       </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1238,6 +1254,9 @@
       <c r="L7" t="s">
         <v>5</v>
       </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1351,6 +1370,9 @@
       <c r="L8" t="s">
         <v>5</v>
       </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1464,6 +1486,9 @@
       <c r="L9" t="s">
         <v>5</v>
       </c>
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1577,6 +1602,9 @@
       <c r="L10" t="s">
         <v>5</v>
       </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1690,6 +1718,9 @@
       <c r="L11" t="s">
         <v>5</v>
       </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1803,6 +1834,9 @@
       <c r="L12" t="s">
         <v>5</v>
       </c>
+      <c r="M12" t="s">
+        <v>5</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1916,6 +1950,9 @@
       <c r="L13" t="s">
         <v>5</v>
       </c>
+      <c r="M13" t="s">
+        <v>5</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -2029,6 +2066,9 @@
       <c r="L14" t="s">
         <v>5</v>
       </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2142,6 +2182,9 @@
       <c r="L15" t="s">
         <v>5</v>
       </c>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2255,6 +2298,9 @@
       <c r="L16" t="s">
         <v>5</v>
       </c>
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2368,6 +2414,9 @@
       <c r="L17" t="s">
         <v>5</v>
       </c>
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2481,6 +2530,9 @@
       <c r="L18" t="s">
         <v>5</v>
       </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2594,6 +2646,9 @@
       <c r="L19" t="s">
         <v>5</v>
       </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2707,6 +2762,9 @@
       <c r="L20" t="s">
         <v>5</v>
       </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2820,6 +2878,9 @@
       <c r="L21" t="s">
         <v>5</v>
       </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2933,6 +2994,9 @@
       <c r="L22" t="s">
         <v>5</v>
       </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -3046,6 +3110,9 @@
       <c r="L23" t="s">
         <v>5</v>
       </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -3159,6 +3226,9 @@
       <c r="L24" t="s">
         <v>5</v>
       </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3272,6 +3342,9 @@
       <c r="L25" t="s">
         <v>5</v>
       </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3385,6 +3458,9 @@
       <c r="L26" t="s">
         <v>5</v>
       </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3498,6 +3574,9 @@
       <c r="L27" t="s">
         <v>5</v>
       </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3611,6 +3690,9 @@
       <c r="L28" t="s">
         <v>5</v>
       </c>
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3724,6 +3806,9 @@
       <c r="L29" t="s">
         <v>5</v>
       </c>
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3837,6 +3922,9 @@
       <c r="L30" t="s">
         <v>5</v>
       </c>
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3950,6 +4038,9 @@
       <c r="L31" t="s">
         <v>5</v>
       </c>
+      <c r="M31" t="s">
+        <v>5</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -4054,8 +4145,11 @@
       <c r="L32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
@@ -4073,8 +4167,11 @@
       <c r="L33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <f>alunos!A33</f>
         <v>0</v>
@@ -4085,6 +4182,12 @@
       </c>
       <c r="C34">
         <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
